--- a/Auswertung-MR/Excel/JKopplung.xlsx
+++ b/Auswertung-MR/Excel/JKopplung.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Dokumente\Studium\Konstanz\7. Semester\FP\EFNMR-Remote\Auswertung-MR\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D666A5-09E4-4085-BDE6-827A26EA1C17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E47DE2A-DA28-4EF0-B79B-CCDED0007B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="1560" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15552" yWindow="4620" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Fit Parameter</t>
   </si>
@@ -67,16 +75,70 @@
   </si>
   <si>
     <t>GR a5</t>
+  </si>
+  <si>
+    <t>Kopplungskonstante</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>gewichteter Mittelwert</t>
+  </si>
+  <si>
+    <t>Gewichte</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>uint</t>
+  </si>
+  <si>
+    <t>Stabw</t>
+  </si>
+  <si>
+    <t>uext</t>
+  </si>
+  <si>
+    <t>abstand Hauptpeaks</t>
+  </si>
+  <si>
+    <t>durch 2PI</t>
+  </si>
+  <si>
+    <t>Verhältnis der Peakflächen</t>
+  </si>
+  <si>
+    <t>1 zu 2</t>
+  </si>
+  <si>
+    <t>1 zu 3</t>
+  </si>
+  <si>
+    <t>2 zu 3</t>
+  </si>
+  <si>
+    <t>Normierung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -384,32 +448,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="R3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <f>B10/B7</f>
+        <v>1.5384763311333671</v>
+      </c>
+      <c r="T3">
+        <f>SQRT(((1/B7)*C10)^2+((B10/B7^2)*C7)^2)</f>
+        <v>0.62894645107241065</v>
+      </c>
+      <c r="V3">
+        <f>B7/B7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -419,8 +511,32 @@
       <c r="C4">
         <v>5.9909999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4">
+        <f>B10/B13</f>
+        <v>1.5384881654756499</v>
+      </c>
+      <c r="T4">
+        <f>SQRT(((1/B13)*C10)^2+((B10/B13^2)*C13)^2)</f>
+        <v>0.5380013477232094</v>
+      </c>
+      <c r="V4">
+        <f>B10/B7</f>
+        <v>1.5384763311333671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -433,8 +549,38 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>SQRT((B6-B9)^2)</f>
+        <v>6.2899999999999636</v>
+      </c>
+      <c r="J5">
+        <f>SQRT((C6)^2+(C9)^2)</f>
+        <v>0.53189996239894588</v>
+      </c>
+      <c r="M5">
+        <f>1/J5^2</f>
+        <v>3.5345984344485912</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5">
+        <f>B7/B13</f>
+        <v>1.000007692248521</v>
+      </c>
+      <c r="T5">
+        <f>SQRT(((1/B13)*C7)^2+((B7/B13^2)*C13)^2)</f>
+        <v>0.42148727059649665</v>
+      </c>
+      <c r="V5">
+        <f>B13/B7</f>
+        <v>0.99999230781064918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -444,8 +590,23 @@
       <c r="C6">
         <v>0.4294</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f>SQRT((B12-B9)^2)</f>
+        <v>6.4500000000000455</v>
+      </c>
+      <c r="J6">
+        <f>SQRT((C9)^2+(C12)^2)</f>
+        <v>0.53448664155430492</v>
+      </c>
+      <c r="M6">
+        <f>1/J6^2</f>
+        <v>3.50046943045297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -456,7 +617,7 @@
         <v>0.43359999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -469,8 +630,20 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -480,8 +653,24 @@
       <c r="C9">
         <v>0.31390000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <f>(I5*M5+I6*M6)/(M5+M6)</f>
+        <v>6.3696118985101418</v>
+      </c>
+      <c r="M9">
+        <f>SQRT(1/(M5+M6))</f>
+        <v>0.37702127203270297</v>
+      </c>
+      <c r="N9">
+        <f>SQRT(((M5*(I5-L9)^2)+(M6*(I6-L9)^2))/(M5+M6))</f>
+        <v>7.9999058602211778E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <f>STDEV(I5,I6)/SQRT(2)</f>
+        <v>8.0000000000040913E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -492,7 +681,7 @@
         <v>0.4728</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -506,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -517,7 +706,7 @@
         <v>0.43259999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -528,7 +717,18 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -538,8 +738,23 @@
       <c r="C15">
         <v>7.6289999999999997E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="R15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15">
+        <f>B21/B18</f>
+        <v>2.4000159999999999</v>
+      </c>
+      <c r="T15">
+        <f>SQRT(((1/B18)*C21)^2+((B21/B18^2)*C18)^2)</f>
+        <v>0.55255292835604941</v>
+      </c>
+      <c r="V15">
+        <f>B18/B24</f>
+        <v>1.1904761904761905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -552,8 +767,32 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16">
+        <f>B21/B24</f>
+        <v>2.8571619047619046</v>
+      </c>
+      <c r="T16">
+        <f>SQRT(((1/B24)*C21)^2+((B21/B24^2)*C24)^2)</f>
+        <v>0.76682987088992571</v>
+      </c>
+      <c r="V16">
+        <f>B21/B24</f>
+        <v>2.8571619047619046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -563,8 +802,38 @@
       <c r="C17">
         <v>0.26029999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f>SQRT((B17-B20)^2)</f>
+        <v>6.3199999999999363</v>
+      </c>
+      <c r="J17">
+        <f>SQRT((C17)^2+(C20)^2)</f>
+        <v>0.28819746702564891</v>
+      </c>
+      <c r="M17">
+        <f>1/J17^2</f>
+        <v>12.039811321708816</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17">
+        <f>B18/B24</f>
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="T17">
+        <f>SQRT(((1/B24)*C18)^2+((B18/B24^2)*C24)^2)</f>
+        <v>0.39050003325275567</v>
+      </c>
+      <c r="V17">
+        <f>B24/B24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -574,8 +843,23 @@
       <c r="C18">
         <v>0.52610000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f>SQRT((B23-B20)^2)</f>
+        <v>6.2300000000000182</v>
+      </c>
+      <c r="J18">
+        <f>SQRT((C20)^2+(C23)^2)</f>
+        <v>0.32163846163044618</v>
+      </c>
+      <c r="M18">
+        <f>1/J18^2</f>
+        <v>9.6663840860385513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -589,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -599,8 +883,20 @@
       <c r="C20">
         <v>0.1237</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -610,8 +906,24 @@
       <c r="C21">
         <v>0.56030000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <f>(I17*M17+I18*M18)/(M17+M18)</f>
+        <v>6.2799204489132388</v>
+      </c>
+      <c r="M21">
+        <f>SQRT(1/(M17+M18))</f>
+        <v>0.21463875758894108</v>
+      </c>
+      <c r="N21">
+        <f>SQRT(((M17*(I17-L21)^2)+(M18*(I18-L21)^2))/(M17+M18))</f>
+        <v>4.4730182008218038E-2</v>
+      </c>
+      <c r="O21">
+        <f>STDEV(I17,I18)/SQRT(2)</f>
+        <v>4.4999999999959073E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -625,7 +937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -636,7 +948,7 @@
         <v>0.2969</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -646,8 +958,39 @@
       <c r="C24">
         <v>0.52839999999999998</v>
       </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f>SQRT((B9-B20)^2)</f>
+        <v>109.55999999999995</v>
+      </c>
+      <c r="I25">
+        <f>SQRT((C20)^2+(C9)^2)</f>
+        <v>0.33739427973811298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <f>H25/(2*PI())</f>
+        <v>17.437015565148045</v>
+      </c>
+      <c r="I26">
+        <f>I25/(2*PI())</f>
+        <v>5.3697967391250385E-2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Auswertung-MR/Excel/JKopplung.xlsx
+++ b/Auswertung-MR/Excel/JKopplung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Dokumente\Studium\Konstanz\7. Semester\FP\EFNMR-Remote\Auswertung-MR\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E47DE2A-DA28-4EF0-B79B-CCDED0007B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57D322E-5B9C-4CA8-97AF-E949371855B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15552" yWindow="4620" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1080" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/Auswertung-MR/Excel/JKopplung.xlsx
+++ b/Auswertung-MR/Excel/JKopplung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Dokumente\Studium\Konstanz\7. Semester\FP\EFNMR-Remote\Auswertung-MR\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57D322E-5B9C-4CA8-97AF-E949371855B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA884ED-1449-44A3-BC23-30D415F0169A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1080" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,12 +557,15 @@
         <v>6.2899999999999636</v>
       </c>
       <c r="J5">
-        <f>SQRT((C6)^2+(C9)^2)</f>
-        <v>0.53189996239894588</v>
+        <f>SQRT((B5)^2+(B8)^2)</f>
+        <v>1.516426193525092</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="M5">
         <f>1/J5^2</f>
-        <v>3.5345984344485912</v>
+        <v>0.43486799400357873</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>26</v>
@@ -598,12 +601,12 @@
         <v>6.4500000000000455</v>
       </c>
       <c r="J6">
-        <f>SQRT((C9)^2+(C12)^2)</f>
-        <v>0.53448664155430492</v>
+        <f>SQRT((B8)^2+(B11)^2)</f>
+        <v>1.5164279080787717</v>
       </c>
       <c r="M6">
         <f>1/J6^2</f>
-        <v>3.50046943045297</v>
+        <v>0.43486701063457867</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -655,15 +658,15 @@
       </c>
       <c r="L9">
         <f>(I5*M5+I6*M6)/(M5+M6)</f>
-        <v>6.3696118985101418</v>
+        <v>6.3699999095477189</v>
       </c>
       <c r="M9">
         <f>SQRT(1/(M5+M6))</f>
-        <v>0.37702127203270297</v>
+        <v>1.0722758507962491</v>
       </c>
       <c r="N9">
         <f>SQRT(((M5*(I5-L9)^2)+(M6*(I6-L9)^2))/(M5+M6))</f>
-        <v>7.9999058602211778E-2</v>
+        <v>7.9999999999989788E-2</v>
       </c>
       <c r="O9" s="1">
         <f>STDEV(I5,I6)/SQRT(2)</f>
@@ -810,12 +813,12 @@
         <v>6.3199999999999363</v>
       </c>
       <c r="J17">
-        <f>SQRT((C17)^2+(C20)^2)</f>
-        <v>0.28819746702564891</v>
+        <f>SQRT((B16)^2+(B19)^2)</f>
+        <v>1.0511882609713639</v>
       </c>
       <c r="M17">
         <f>1/J17^2</f>
-        <v>12.039811321708816</v>
+        <v>0.90498002907843811</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>26</v>
@@ -851,12 +854,12 @@
         <v>6.2300000000000182</v>
       </c>
       <c r="J18">
-        <f>SQRT((C20)^2+(C23)^2)</f>
-        <v>0.32163846163044618</v>
+        <f>SQRT((B19)^2+(B22)^2)</f>
+        <v>1.038555130941059</v>
       </c>
       <c r="M18">
         <f>1/J18^2</f>
-        <v>9.6663840860385513</v>
+        <v>0.92713054320345933</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -908,15 +911,15 @@
       </c>
       <c r="L21">
         <f>(I17*M17+I18*M18)/(M17+M18)</f>
-        <v>6.2799204489132388</v>
+        <v>6.2744559426975925</v>
       </c>
       <c r="M21">
         <f>SQRT(1/(M17+M18))</f>
-        <v>0.21463875758894108</v>
+        <v>0.73879536065881168</v>
       </c>
       <c r="N21">
         <f>SQRT(((M17*(I17-L21)^2)+(M18*(I18-L21)^2))/(M17+M18))</f>
-        <v>4.4730182008218038E-2</v>
+        <v>4.4996711009228654E-2</v>
       </c>
       <c r="O21">
         <f>STDEV(I17,I18)/SQRT(2)</f>

--- a/Auswertung-MR/Excel/JKopplung.xlsx
+++ b/Auswertung-MR/Excel/JKopplung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Dokumente\Studium\Konstanz\7. Semester\FP\EFNMR-Remote\Auswertung-MR\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA884ED-1449-44A3-BC23-30D415F0169A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E816A56-A8BF-48D0-96D3-69B8FF8D6330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1428" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Fit Parameter</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Normierung</t>
+  </si>
+  <si>
+    <t>uc</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,8 +756,8 @@
         <v>0.55255292835604941</v>
       </c>
       <c r="V15">
-        <f>B18/B24</f>
-        <v>1.1904761904761905</v>
+        <f>B18/B18</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -791,8 +794,8 @@
         <v>0.76682987088992571</v>
       </c>
       <c r="V16">
-        <f>B21/B24</f>
-        <v>2.8571619047619046</v>
+        <f>B21/B18</f>
+        <v>2.4000159999999999</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -832,8 +835,8 @@
         <v>0.39050003325275567</v>
       </c>
       <c r="V17">
-        <f>B24/B24</f>
-        <v>1</v>
+        <f>B24/B18</f>
+        <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -989,6 +992,29 @@
       <c r="I26">
         <f>I25/(2*PI())</f>
         <v>5.3697967391250385E-2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <f>AVERAGE(L21,L9)</f>
+        <v>6.3222279261226557</v>
+      </c>
+      <c r="O27">
+        <f>STDEV(L9,L21)/SQRT(2)</f>
+        <v>4.7771983425063169E-2</v>
+      </c>
+      <c r="P27">
+        <f>SQRT((M9)^2+(M21)^2)</f>
+        <v>1.3021497936611608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f>110/(2*PI())</f>
+        <v>17.507043740108486</v>
       </c>
     </row>
   </sheetData>
